--- a/etc/variable.xlsx
+++ b/etc/variable.xlsx
@@ -1,343 +1,298 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HK\Desktop\GitHub\Big-Contest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big-Contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{06E67F39-8183-424B-B671-324E3ECDDB9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E6273A-1F38-4690-A7C1-F5D61FCF9CE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="variable" sheetId="1" r:id="rId1"/>
+    <sheet name="variable" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
-  <si>
-    <t>day</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>private_shop</t>
+  </si>
+  <si>
+    <t>game_money_change</t>
+  </si>
+  <si>
+    <t>enchant_count</t>
+  </si>
+  <si>
+    <t>계정 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아데나 변동량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환창 구매 횟수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>play_char_cnt_pld</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 횟수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>acc_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>playtime</t>
-  </si>
-  <si>
-    <t>npc_kill</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>total_exp</t>
-  </si>
-  <si>
-    <t>solo_exp</t>
-  </si>
-  <si>
-    <t>party_exp</t>
-  </si>
-  <si>
-    <t>quest_exp</t>
-  </si>
-  <si>
-    <t>solo_exp_per</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_ex</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_pr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_week</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정의 첫 접속 주차</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk_ratio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_cnt_act</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명(*_wi)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>combat_play_time_pld</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pledge_combat_cnt_pld</t>
+  </si>
+  <si>
+    <t>combat_cnt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동(activity) 캐릭터 수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 획득 경험치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인상점 운영시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인상점 구매 횟수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 캐릭터 레벨의 합</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인의 전투참여 횟수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정의 총 평균 접속주기 대비 해당 기간의 접속주기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주차별 평균 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈맹의 총 전투 플레이 시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈맹의 총 접속 캐릭터 수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈맹의 총 혈맹간 전투 횟수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_diff_day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean_payment</t>
+  </si>
+  <si>
+    <t>max_payment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_payment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 최대 미접속기간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 접속 일수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 결제 횟수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균 결제금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 최대 결제금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균</t>
   </si>
   <si>
     <t>party_exp_per</t>
-  </si>
-  <si>
-    <t>rich_monster</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 경험치 중 파티 사냥 획득 경험치의 비율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>death</t>
-  </si>
-  <si>
-    <t>revive_per</t>
-  </si>
-  <si>
-    <t>exp_recovery</t>
-  </si>
-  <si>
-    <t>fishing</t>
-  </si>
-  <si>
-    <t>private_shop</t>
-  </si>
-  <si>
-    <t>game_money_change</t>
-  </si>
-  <si>
-    <t>enchant_count</t>
-  </si>
-  <si>
-    <t>s_item_amount</t>
-  </si>
-  <si>
-    <t>s_item_price</t>
-  </si>
-  <si>
-    <t>s_type</t>
-  </si>
-  <si>
-    <t>t_item_amount</t>
-  </si>
-  <si>
-    <t>t_item_price</t>
-  </si>
-  <si>
-    <t>t_type</t>
-  </si>
-  <si>
-    <t>dawn</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>max_level</t>
-  </si>
-  <si>
-    <t>sum_level</t>
-  </si>
-  <si>
-    <t>pledge_cnt</t>
-  </si>
-  <si>
-    <t>random_attacker_cnt</t>
-  </si>
-  <si>
-    <t>random_defender_cnt</t>
-  </si>
-  <si>
-    <t>temp_cnt</t>
-  </si>
-  <si>
-    <t>same_pledge_cnt</t>
-  </si>
-  <si>
-    <t>etc_cnt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 강화 시도 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>num_opponent</t>
-  </si>
-  <si>
-    <t>combat_char_cnt</t>
-  </si>
-  <si>
-    <t>pledge_combat_cnt</t>
-  </si>
-  <si>
-    <t>random_attacker_cnt_pld</t>
-  </si>
-  <si>
-    <t>random_defender_cnt_pld</t>
-  </si>
-  <si>
-    <t>same_pledge_cnt_pld</t>
-  </si>
-  <si>
-    <t>temp_cnt_pld</t>
-  </si>
-  <si>
-    <t>etc_cnt_pld</t>
-  </si>
-  <si>
-    <t>combat_play_time</t>
-  </si>
-  <si>
-    <t>amount_spent</t>
-  </si>
-  <si>
-    <t>week_index</t>
-  </si>
-  <si>
-    <t>max_diff</t>
-  </si>
-  <si>
-    <t>변수명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~28</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 아이디</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이 시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 획득 경험치 중 솔로 경험치 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 획득 경험치 중 파티 경험치 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 몬스터 타격 여부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치 회복 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인상점 운영 시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아데나 변동량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 강화 시도 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매한 아이템 총 금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매한 아이템 총 수량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교환창 판매 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입한 아이템 총 수량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입한 아이템 총 금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교환창 구매 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>새벽시간 접속 여부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 캐릭터의 직업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정별 캐릭터 레벨의 합</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정별 캐릭터 레벨의 최대값</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정별 전투 캐릭터 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정별 활동 캐릭터 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_cnt_com</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 특수 서버 접속 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>play_char_cnt_pld</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈맹별 전투 참여 캐릭터 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈맹별 접속 캐릭터 수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈맹별 혈맹간 전투 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정별 혈맹간 전투 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈맹별 전투 캐릭터의 플레이 시간의 합</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정별 결제금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 접속주차</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동 특수 서버 접속 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>server_special_act</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최장 미접속기간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 횟수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 횟수 중 부활 비율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터간
-SUM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_cnt_acc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>server_special_com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인의 전투 상대 캐릭터 수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈맹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균
+solo_exp, party_exp, quest_exp를 
+모두 더한 값 (단위변환)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일별 시도 횟수를 여부로 변환 후 
+주차별 평균</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차별 평균
+pledge_cnt, temp_cnt, etc_cnt을 
+모두 더한 값 (단위변환)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,15 +454,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,8 +650,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -803,6 +772,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -932,17 +1037,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,570 +1461,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="14"/>
+    <col min="2" max="2" width="20.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="21"/>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="C18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="22"/>
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="A26" s="22"/>
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41">
+      <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
+      <c r="D26" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D5:D28"/>
+  <mergeCells count="6">
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/variable.xlsx
+++ b/etc/variable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big-Contest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HK\Desktop\GitHub\Big-Contest\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E6273A-1F38-4690-A7C1-F5D61FCF9CE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6000CD-BC3B-49A9-BA62-8CCE9D310BBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -774,15 +774,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -827,7 +818,24 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -844,34 +852,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -888,26 +868,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1037,75 +997,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1464,321 +1418,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="14"/>
-    <col min="2" max="2" width="20.69921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.19921875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="7"/>
+    <col min="2" max="2" width="20.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>53</v>
       </c>
     </row>
